--- a/kadai3/day1/kadai3_1.xlsx
+++ b/kadai3/day1/kadai3_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tea/development/tus_school/sophomore/zikken2/kadai3/day1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8599019-BEAA-984F-8C3D-BBB87EABC37A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF7DAB5-2CC6-F448-836D-4B5887570412}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3760" yWindow="2260" windowWidth="28300" windowHeight="17440" xr2:uid="{77A1DC4E-F8C6-EC46-ADF4-30025C07101B}"/>
   </bookViews>
@@ -191,19 +191,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -1785,7 +1773,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="D19:E19"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
